--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.746601920714205E-09</v>
+        <v>1.743400169460882E-09</v>
       </c>
       <c r="E2">
-        <v>1.746601920714205E-09</v>
+        <v>1.743400169460882E-09</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9944618605061387</v>
+        <v>0.994567591248369</v>
       </c>
       <c r="E3">
-        <v>0.9944618605061387</v>
+        <v>0.994567591248369</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.07165703781838223</v>
+        <v>0.07153859923440943</v>
       </c>
       <c r="E4">
-        <v>0.07165703781838223</v>
+        <v>0.07153859923440943</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.007846594189445145</v>
+        <v>0.007844566840273064</v>
       </c>
       <c r="E5">
-        <v>0.007846594189445145</v>
+        <v>0.007844566840273064</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.002860607247881031</v>
+        <v>0.002859905976837508</v>
       </c>
       <c r="E6">
-        <v>0.002860607247881031</v>
+        <v>0.002859905976837508</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9934313280644304</v>
+        <v>0.000103509503458018</v>
       </c>
       <c r="E7">
-        <v>0.006568671935569648</v>
+        <v>0.9998964904965419</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9941694884506824</v>
+        <v>2.713652366713575E-18</v>
       </c>
       <c r="E8">
-        <v>0.005830511549317574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9933099348715932</v>
+        <v>0.8390347890443137</v>
       </c>
       <c r="E9">
-        <v>0.006690065128406752</v>
+        <v>0.1609652109556863</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.994210026397534</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.005789973602466025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.993810156592269</v>
+        <v>0.9978791745294811</v>
       </c>
       <c r="E11">
-        <v>0.006189843407730988</v>
+        <v>0.00212082547051895</v>
       </c>
       <c r="F11">
-        <v>0.531235933303833</v>
+        <v>5.510204792022705</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.645697863591453E-13</v>
+        <v>1.498300115585743E-13</v>
       </c>
       <c r="E12">
-        <v>1.645697863591453E-13</v>
+        <v>1.498300115585743E-13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.2197037121396637</v>
+        <v>0.2209896784441164</v>
       </c>
       <c r="E13">
-        <v>0.2197037121396637</v>
+        <v>0.2209896784441164</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.009775823833322421</v>
+        <v>0.009722949081139916</v>
       </c>
       <c r="E14">
-        <v>0.009775823833322421</v>
+        <v>0.009722949081139916</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>8.101432632212765E-08</v>
+        <v>8.166795242402178E-08</v>
       </c>
       <c r="E15">
-        <v>8.101432632212765E-08</v>
+        <v>8.166795242402178E-08</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1.593042483430682E-05</v>
+        <v>1.598109559814509E-05</v>
       </c>
       <c r="E16">
-        <v>1.593042483430682E-05</v>
+        <v>1.598109559814509E-05</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9978740798481236</v>
+        <v>3.946803336994392E-07</v>
       </c>
       <c r="E17">
-        <v>0.002125920151876404</v>
+        <v>0.9999996053196663</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9975960867670972</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.002403913232902788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9978538386454299</v>
+        <v>0.9976334723619721</v>
       </c>
       <c r="E19">
-        <v>0.002146161354570131</v>
+        <v>0.002366527638027915</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9974958382137293</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.002504161786270664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9978039133601772</v>
+        <v>0.9999679813145101</v>
       </c>
       <c r="E21">
-        <v>0.002196086639822847</v>
+        <v>3.201868548985409E-05</v>
       </c>
       <c r="F21">
-        <v>0.02693098783493042</v>
+        <v>1.500710725784302</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
